--- a/data/Subset 1/Boats and fish 2_Grade 4.xlsx
+++ b/data/Subset 1/Boats and fish 2_Grade 4.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Teacher Tag</t>
+          <t>T Tag</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1248,7 +1248,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T 2</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T 2</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T 2</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T 2</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T 2</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T 2</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T 2</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T 2</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T 2</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T 2</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T 2</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T 2</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T 2</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T 2</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T 2</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T 2</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T 2</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T 2</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T 2</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T 2</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T 2</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T 2</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T 2</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T 2</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
